--- a/www/terminologies/ASS-A12-CorresMediaTypeCDANonStructure-XdsFormatCode-CISIS.xlsx
+++ b/www/terminologies/ASS-A12-CorresMediaTypeCDANonStructure-XdsFormatCode-CISIS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-02T10:50:09+00:00</t>
+    <t>2025-06-08T18:16:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ASS-A12-CorresMediaTypeCDANonStructure-XdsFormatCode-CISIS.xlsx
+++ b/www/terminologies/ASS-A12-CorresMediaTypeCDANonStructure-XdsFormatCode-CISIS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-08T18:16:56+00:00</t>
+    <t>2025-07-02T12:47:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ASS-A12-CorresMediaTypeCDANonStructure-XdsFormatCode-CISIS.xlsx
+++ b/www/terminologies/ASS-A12-CorresMediaTypeCDANonStructure-XdsFormatCode-CISIS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-02T12:47:09+00:00</t>
+    <t>2025-07-30T08:19:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ASS-A12-CorresMediaTypeCDANonStructure-XdsFormatCode-CISIS.xlsx
+++ b/www/terminologies/ASS-A12-CorresMediaTypeCDANonStructure-XdsFormatCode-CISIS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:19:15+00:00</t>
+    <t>2025-10-02T12:01:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ASS-A12-CorresMediaTypeCDANonStructure-XdsFormatCode-CISIS.xlsx
+++ b/www/terminologies/ASS-A12-CorresMediaTypeCDANonStructure-XdsFormatCode-CISIS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:01:06+00:00</t>
+    <t>2025-11-03T13:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ASS-A12-CorresMediaTypeCDANonStructure-XdsFormatCode-CISIS.xlsx
+++ b/www/terminologies/ASS-A12-CorresMediaTypeCDANonStructure-XdsFormatCode-CISIS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:53:01+00:00</t>
+    <t>2025-12-19T16:18:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,7 +96,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV-MediaTypeCorpsCDANonStructure?vs</t>
+    <t>https://smt.esante.gouv.fr/fhir/ValueSet/jdv-hl7-v3-MediaType-cisis</t>
   </si>
   <si>
     <t>Target</t>
@@ -111,13 +111,13 @@
     <t>Relationship</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R222-MediaTypeCorpsCDANonStructure/FHIR/TRE-R222-MediaTypeCorpsCDANonStructure</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R222-MediaTypeCorpsCDANonStructure/FHIR/TRE-R222-MediaTypeCorpsCDANonStructure|20251222120000</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_A11-IheFormatCode/FHIR/TRE-A11-IheFormatCode</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_A11-IheFormatCode/FHIR/TRE-A11-IheFormatCode|20240426120000</t>
   </si>
   <si>
     <t>application/pdf</t>
